--- a/biology/Biochimie/The_Mosaic_Company/The_Mosaic_Company.xlsx
+++ b/biology/Biochimie/The_Mosaic_Company/The_Mosaic_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Mosaic Company est une entreprise américaine produisant du phosphate et de la potasse. Elle est basée à Plymouth au Minnesota aux États-Unis. Elle est issue de la fusion d'IMC Global et des activités de fertilisations de Cargill.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que Cargill en est actionnaire principal (avec une participation de 64%), en 2011, Cargill décide de se séparer de sa filiale en distribuant les actions Mosaic Company à ses actionnaires[2]
-En décembre 2016, Vale annonce la vente une partie de ses activités dans les fertilisants à Mosaic pour 2,5 milliards de dollars, la moitié en action et l'autre en liquidité[3].
-En novembre 2021, Vale annonce vendre sa participation minoritaire de 11% dans Mosaic pour 1,26 milliard de dollars[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que Cargill en est actionnaire principal (avec une participation de 64%), en 2011, Cargill décide de se séparer de sa filiale en distribuant les actions Mosaic Company à ses actionnaires
+En décembre 2016, Vale annonce la vente une partie de ses activités dans les fertilisants à Mosaic pour 2,5 milliards de dollars, la moitié en action et l'autre en liquidité.
+En novembre 2021, Vale annonce vendre sa participation minoritaire de 11% dans Mosaic pour 1,26 milliard de dollars.
 </t>
         </is>
       </c>
